--- a/r5demo/StructureDefinition-FoodAllergyModel.xlsx
+++ b/r5demo/StructureDefinition-FoodAllergyModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T08:46:20+00:00</t>
+    <t>2022-11-11T08:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5demo/StructureDefinition-FoodAllergyModel.xlsx
+++ b/r5demo/StructureDefinition-FoodAllergyModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T08:55:58+00:00</t>
+    <t>2022-11-12T10:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5demo/StructureDefinition-FoodAllergyModel.xlsx
+++ b/r5demo/StructureDefinition-FoodAllergyModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T10:13:12+00:00</t>
+    <t>2022-11-12T10:33:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5demo/StructureDefinition-FoodAllergyModel.xlsx
+++ b/r5demo/StructureDefinition-FoodAllergyModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T10:33:12+00:00</t>
+    <t>2022-11-13T06:37:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5demo/StructureDefinition-FoodAllergyModel.xlsx
+++ b/r5demo/StructureDefinition-FoodAllergyModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-13T06:37:05+00:00</t>
+    <t>2022-11-13T06:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
